--- a/results/all_runtimes.xlsx
+++ b/results/all_runtimes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,39 +462,77 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15.70282888412476</v>
+        <v>169.2459845542908</v>
       </c>
       <c r="B2" t="n">
-        <v>15.30613803863525</v>
+        <v>137.388683795929</v>
       </c>
       <c r="C2" t="n">
-        <v>3.603779554367065</v>
+        <v>38.35231494903564</v>
       </c>
       <c r="D2" t="n">
-        <v>17.85576415061951</v>
+        <v>105.8771035671234</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>dataset_1</t>
+          <t>mushrooms</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.153009653091431</v>
+        <v>197.8270778656006</v>
       </c>
       <c r="B3" t="n">
-        <v>2.988678932189941</v>
+        <v>317.4417445659637</v>
       </c>
       <c r="C3" t="n">
-        <v>1.394525527954102</v>
+        <v>63.03927946090698</v>
       </c>
       <c r="D3" t="n">
-        <v>15.09866857528687</v>
+        <v>99.47230672836304</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>dataset_2</t>
+          <t>adult</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>182.6017861366272</v>
+      </c>
+      <c r="B4" t="n">
+        <v>148.9142618179321</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39.27482843399048</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3228.864134788513</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>prostate</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>132.0432755947113</v>
+      </c>
+      <c r="B5" t="n">
+        <v>59.42562341690063</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.772725820541382</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96.80117583274841</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>credit card</t>
         </is>
       </c>
     </row>
